--- a/ocms/target/test-classes/DownloadedFiles/TMAC Broadcast Message.xlsx
+++ b/ocms/target/test-classes/DownloadedFiles/TMAC Broadcast Message.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">Team Name</t>
   </si>
@@ -28,22 +28,28 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">ProductQA</t>
+    <t xml:space="preserve">South</t>
   </si>
   <si>
-    <t xml:space="preserve">Good Evening</t>
+    <t xml:space="preserve">holiday</t>
   </si>
   <si>
-    <t xml:space="preserve">Enabled</t>
+    <t xml:space="preserve">Disabled</t>
   </si>
   <si>
-    <t xml:space="preserve">Project</t>
+    <t xml:space="preserve">ProductQA</t>
   </si>
   <si>
     <t xml:space="preserve">Happy Lohri</t>
   </si>
   <si>
-    <t xml:space="preserve">Disabled</t>
+    <t xml:space="preserve">ApplicationSupport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celebration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabled</t>
   </si>
 </sst>
 </file>
@@ -116,7 +122,7 @@
   </sheetViews>
   <sheetFormatPr x14ac:dyDescent="0.25" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="9.714285714285714" bestFit="1"/>
+    <col min="1" max="1" customWidth="1" width="18.714285714285715" bestFit="1"/>
     <col min="2" max="2" customWidth="1" width="12.714285714285714" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="8.714285714285714" bestFit="1"/>
   </cols>
@@ -151,7 +157,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
